--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27553" windowHeight="14652" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23753" windowHeight="10199"/>
   </bookViews>
   <sheets>
     <sheet name="CrossEntropy" sheetId="1" r:id="rId1"/>
@@ -28,79 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">discount to 0.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount to 0.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boosting by 0.9 </t>
-  </si>
-  <si>
-    <t>boosting by 0.95</t>
-  </si>
-  <si>
-    <t>boosting by 0.99</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>discount to 0.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>Entropies</t>
   </si>
@@ -158,15 +86,170 @@
   <si>
     <t>Perplexity</t>
   </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Messup probability</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Words in text (non-unique)</t>
+  </si>
+  <si>
+    <t>Unique words in text</t>
+  </si>
+  <si>
+    <t>Words used 1x</t>
+  </si>
+  <si>
+    <t>Words used 2x</t>
+  </si>
+  <si>
+    <t>Words used 3x</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>English text</t>
+  </si>
+  <si>
+    <t>Czech text</t>
+  </si>
+  <si>
+    <t>discount to 0%</t>
+  </si>
+  <si>
+    <t>discount to 10%</t>
+  </si>
+  <si>
+    <t>discount to 20%</t>
+  </si>
+  <si>
+    <t>discount to 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 40% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 60% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 70% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 80% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount to 90% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 10% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 30% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 40% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 60% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 70% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 80% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boosting by 90% </t>
+  </si>
+  <si>
+    <t>boosting by 95%</t>
+  </si>
+  <si>
+    <t>boosting by 99%</t>
+  </si>
+  <si>
+    <t>Lambdas for Czech text</t>
+  </si>
+  <si>
+    <t>Lambdas for English text</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Heldout</t>
+  </si>
+  <si>
+    <t>Frequency of the most common word</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Coverage (% of data seen in training)</t>
+  </si>
+  <si>
+    <t>original lambdas</t>
+  </si>
+  <si>
+    <t>Coverage of unique words</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,9 +275,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -261,8 +361,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28463188976377951"/>
-          <c:y val="3.5957887933703095E-2"/>
+          <c:x val="0.28463195201923708"/>
+          <c:y val="1.2787003858516209E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -304,7 +404,7 @@
           <c:x val="5.8247594050743659E-2"/>
           <c:y val="1.9393287558910541E-2"/>
           <c:w val="0.90286351706036749"/>
-          <c:h val="0.80873121695838168"/>
+          <c:h val="0.77476773165381485"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -319,7 +419,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EN</c:v>
+                  <c:v>English text</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -354,70 +454,70 @@
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>discount to 0.0</c:v>
+                  <c:v>discount to 0%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>discount to 0.1 </c:v>
+                  <c:v>discount to 10%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>discount to 0.2 </c:v>
+                  <c:v>discount to 20%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>discount to 0.3 </c:v>
+                  <c:v>discount to 30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>discount to 0.4 </c:v>
+                  <c:v>discount to 40% </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>discount to 0.5 </c:v>
+                  <c:v>discount to 50% </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>discount to 0.6 </c:v>
+                  <c:v>discount to 60% </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>discount to 0.7 </c:v>
+                  <c:v>discount to 70% </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>discount to 0.8 </c:v>
+                  <c:v>discount to 80% </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>discount to 0.9 </c:v>
+                  <c:v>discount to 90% </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>original</c:v>
+                  <c:v>original lambdas</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>boosting by 0.1 </c:v>
+                  <c:v>boosting by 10% </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>boosting by 0.2 </c:v>
+                  <c:v>boosting by 20% </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>boosting by 0.3 </c:v>
+                  <c:v>boosting by 30% </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>boosting by 0.4 </c:v>
+                  <c:v>boosting by 40% </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>boosting by 0.5 </c:v>
+                  <c:v>boosting by 50% </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>boosting by 0.6 </c:v>
+                  <c:v>boosting by 60% </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>boosting by 0.7 </c:v>
+                  <c:v>boosting by 70% </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>boosting by 0.8 </c:v>
+                  <c:v>boosting by 80% </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>boosting by 0.9 </c:v>
+                  <c:v>boosting by 90% </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>boosting by 0.95</c:v>
+                  <c:v>boosting by 95%</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>boosting by 0.99</c:v>
+                  <c:v>boosting by 99%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -429,70 +529,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7.7233807669258097</c:v>
+                  <c:v>7.70423839196713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6590351293971297</c:v>
+                  <c:v>7.6172755358064004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6302390439660304</c:v>
+                  <c:v>7.5764630705979803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6106622101929604</c:v>
+                  <c:v>7.5478088953805598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5962258457366003</c:v>
+                  <c:v>7.5261344108133601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5852535993573298</c:v>
+                  <c:v>7.5092765081907604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5768559013969297</c:v>
+                  <c:v>7.4960692293307201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5704922035896303</c:v>
+                  <c:v>7.4857951776826201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5658048378530598</c:v>
+                  <c:v>7.4779756022148298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5625428896348401</c:v>
+                  <c:v>7.4722732378684498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5605227194371096</c:v>
+                  <c:v>7.4684413900978601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5713134615818198</c:v>
+                  <c:v>7.4700729233487202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6140221852611703</c:v>
+                  <c:v>7.49700028020019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6836647000386096</c:v>
+                  <c:v>7.5467995501862202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7810576308521799</c:v>
+                  <c:v>7.6205248900924696</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9112346943282397</c:v>
+                  <c:v>7.7223811915218503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0848850623047408</c:v>
+                  <c:v>7.8610934881573797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3236718663165892</c:v>
+                  <c:v>8.0542166253071699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6776304424500399</c:v>
+                  <c:v>8.3419035491913398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3079996325220904</c:v>
+                  <c:v>8.8511272220474595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9539052739607801</c:v>
+                  <c:v>9.3624476694496899</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.475034177890199</c:v>
+                  <c:v>10.501396766416701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,7 +608,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CZ</c:v>
+                  <c:v>Czech text</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -543,70 +643,70 @@
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>discount to 0.0</c:v>
+                  <c:v>discount to 0%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>discount to 0.1 </c:v>
+                  <c:v>discount to 10%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>discount to 0.2 </c:v>
+                  <c:v>discount to 20%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>discount to 0.3 </c:v>
+                  <c:v>discount to 30%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>discount to 0.4 </c:v>
+                  <c:v>discount to 40% </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>discount to 0.5 </c:v>
+                  <c:v>discount to 50% </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>discount to 0.6 </c:v>
+                  <c:v>discount to 60% </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>discount to 0.7 </c:v>
+                  <c:v>discount to 70% </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>discount to 0.8 </c:v>
+                  <c:v>discount to 80% </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>discount to 0.9 </c:v>
+                  <c:v>discount to 90% </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>original</c:v>
+                  <c:v>original lambdas</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>boosting by 0.1 </c:v>
+                  <c:v>boosting by 10% </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>boosting by 0.2 </c:v>
+                  <c:v>boosting by 20% </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>boosting by 0.3 </c:v>
+                  <c:v>boosting by 30% </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>boosting by 0.4 </c:v>
+                  <c:v>boosting by 40% </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>boosting by 0.5 </c:v>
+                  <c:v>boosting by 50% </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>boosting by 0.6 </c:v>
+                  <c:v>boosting by 60% </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>boosting by 0.7 </c:v>
+                  <c:v>boosting by 70% </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>boosting by 0.8 </c:v>
+                  <c:v>boosting by 80% </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>boosting by 0.9 </c:v>
+                  <c:v>boosting by 90% </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>boosting by 0.95</c:v>
+                  <c:v>boosting by 95%</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>boosting by 0.99</c:v>
+                  <c:v>boosting by 99%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -618,70 +718,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>10.6785881059515</c:v>
+                  <c:v>10.4893943448177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.613189108804301</c:v>
+                  <c:v>10.368891031648801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.5966463930092</c:v>
+                  <c:v>10.3259428379427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5888122496265</c:v>
+                  <c:v>10.2968558025369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5855552693825</c:v>
+                  <c:v>10.2752969298023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5852875271689</c:v>
+                  <c:v>10.258789680917801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.587200113006601</c:v>
+                  <c:v>10.246051011232501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.590816471240901</c:v>
+                  <c:v>10.2363124559133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.595829449054801</c:v>
+                  <c:v>10.2290708944494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.6020286729456</c:v>
+                  <c:v>10.2239767869332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.6092636867103</c:v>
+                  <c:v>10.220777082829599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.6785352280349</c:v>
+                  <c:v>10.2251922554969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.776561222524499</c:v>
+                  <c:v>10.254605947006301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.9012391275703</c:v>
+                  <c:v>10.306676631292101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.055663341959001</c:v>
+                  <c:v>10.3824355136815</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.2473489270191</c:v>
+                  <c:v>10.4859702717108</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.490450346381801</c:v>
+                  <c:v>10.625740601718601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.8125944646491</c:v>
+                  <c:v>10.8187042742214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.2767218338939</c:v>
+                  <c:v>11.1034379112764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.0846760660729</c:v>
+                  <c:v>11.6009145786732</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.901485623565399</c:v>
+                  <c:v>12.0931608191558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.810111076078099</c:v>
+                  <c:v>13.1653162364503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207599952"/>
-        <c:axId val="-207591792"/>
+        <c:axId val="-318793296"/>
+        <c:axId val="-318803088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207599952"/>
+        <c:axId val="-318793296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207591792"/>
+        <c:crossAx val="-318803088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,10 +853,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207591792"/>
+        <c:axId val="-318803088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="13.5"/>
           <c:min val="7"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -775,7 +875,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -806,7 +906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207599952"/>
+        <c:crossAx val="-318793296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -824,10 +924,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5744313210848629E-2"/>
-          <c:y val="0.13079384446259854"/>
+          <c:x val="7.1299884361304536E-2"/>
+          <c:y val="8.1798771238259488E-2"/>
           <c:w val="0.22406692913385826"/>
-          <c:h val="4.0452907058391843E-2"/>
+          <c:h val="0.12195745304145218"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -940,7 +1040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1018,54 +1117,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1172,54 +1271,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1326,54 +1425,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1480,54 +1579,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1602,17 +1701,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-96182112"/>
-        <c:axId val="-96188096"/>
+        <c:axId val="-120107792"/>
+        <c:axId val="-120102352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-96182112"/>
+        <c:axId val="-120107792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1649,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96188096"/>
+        <c:crossAx val="-120102352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1657,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-96188096"/>
+        <c:axId val="-120102352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96182112"/>
+        <c:crossAx val="-120107792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,7 +1821,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1834,7 +1932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1912,54 +2009,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2066,54 +2163,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2220,54 +2317,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2374,54 +2471,54 @@
             <c:numRef>
               <c:f>DATA2!$U$22:$U$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2496,17 +2593,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-100659360"/>
-        <c:axId val="-100649024"/>
+        <c:axId val="-120098544"/>
+        <c:axId val="-120093104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-100659360"/>
+        <c:axId val="-120098544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2543,7 +2640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-100649024"/>
+        <c:crossAx val="-120093104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-100649024"/>
+        <c:axId val="-120093104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-100659360"/>
+        <c:crossAx val="-120098544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2713,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2723,7 +2819,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2801,54 +2896,54 @@
             <c:numRef>
               <c:f>DATA2!$P$22:$P$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2955,54 +3050,54 @@
             <c:numRef>
               <c:f>DATA2!$P$22:$P$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3109,54 +3204,54 @@
             <c:numRef>
               <c:f>DATA2!$P$22:$P$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3263,54 +3358,54 @@
             <c:numRef>
               <c:f>DATA2!$P$22:$P$37</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3385,17 +3480,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-102026160"/>
-        <c:axId val="-102036496"/>
+        <c:axId val="-120103984"/>
+        <c:axId val="-120103440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-102026160"/>
+        <c:axId val="-120103984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3432,7 +3527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102036496"/>
+        <c:crossAx val="-120103440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-102036496"/>
+        <c:axId val="-120103440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102026160"/>
+        <c:crossAx val="-120103984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3505,7 +3600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3612,7 +3706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3690,54 +3783,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3844,54 +3937,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3998,54 +4091,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4152,54 +4245,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4274,17 +4367,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-96185376"/>
-        <c:axId val="-96184288"/>
+        <c:axId val="-120097456"/>
+        <c:axId val="-118826240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-96185376"/>
+        <c:axId val="-120097456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4321,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96184288"/>
+        <c:crossAx val="-118826240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4329,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-96184288"/>
+        <c:axId val="-118826240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96185376"/>
+        <c:crossAx val="-120097456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4394,7 +4487,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4508,7 +4600,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5002,11 +5093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207599408"/>
-        <c:axId val="-207602672"/>
+        <c:axId val="-318796016"/>
+        <c:axId val="-318792208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207599408"/>
+        <c:axId val="-318796016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207602672"/>
+        <c:crossAx val="-318792208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207602672"/>
+        <c:axId val="-318792208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,7 +5199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207599408"/>
+        <c:crossAx val="-318796016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5122,7 +5213,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5236,7 +5326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5730,11 +5819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207604304"/>
-        <c:axId val="-207598864"/>
+        <c:axId val="-318805264"/>
+        <c:axId val="-318802000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207604304"/>
+        <c:axId val="-318805264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5777,7 +5866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207598864"/>
+        <c:crossAx val="-318802000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5785,7 +5874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207598864"/>
+        <c:axId val="-318802000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,7 +5925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207604304"/>
+        <c:crossAx val="-318805264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5850,7 +5939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5964,7 +6052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6458,11 +6545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207597232"/>
-        <c:axId val="-207593424"/>
+        <c:axId val="-318800912"/>
+        <c:axId val="-318799280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207597232"/>
+        <c:axId val="-318800912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,7 +6592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207593424"/>
+        <c:crossAx val="-318799280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6513,7 +6600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207593424"/>
+        <c:axId val="-318799280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,7 +6651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207597232"/>
+        <c:crossAx val="-318800912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6578,7 +6665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6685,7 +6771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7179,11 +7264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207596688"/>
-        <c:axId val="-207595600"/>
+        <c:axId val="-318796560"/>
+        <c:axId val="-318795472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207596688"/>
+        <c:axId val="-318796560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7226,7 +7311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207595600"/>
+        <c:crossAx val="-318795472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7234,7 +7319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207595600"/>
+        <c:axId val="-318795472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -7286,7 +7371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207596688"/>
+        <c:crossAx val="-318796560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -7301,7 +7386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7415,7 +7499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7777,11 +7860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-207593968"/>
-        <c:axId val="-207591248"/>
+        <c:axId val="-120094736"/>
+        <c:axId val="-120105616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-207593968"/>
+        <c:axId val="-120094736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7823,7 +7906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207591248"/>
+        <c:crossAx val="-120105616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7831,7 +7914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207591248"/>
+        <c:axId val="-120105616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7882,7 +7965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207593968"/>
+        <c:crossAx val="-120094736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7896,7 +7979,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8003,7 +8085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8081,54 +8162,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8235,54 +8316,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8389,54 +8470,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8543,54 +8624,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -8665,17 +8746,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-251289216"/>
-        <c:axId val="-251301728"/>
+        <c:axId val="-120095280"/>
+        <c:axId val="-120093648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-251289216"/>
+        <c:axId val="-120095280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8712,7 +8793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-251301728"/>
+        <c:crossAx val="-120093648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8720,7 +8801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-251301728"/>
+        <c:axId val="-120093648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8771,7 +8852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-251289216"/>
+        <c:crossAx val="-120095280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8785,7 +8866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8892,7 +8972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8970,54 +9049,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9124,54 +9203,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9278,54 +9357,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9432,54 +9511,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9554,17 +9633,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-102028880"/>
-        <c:axId val="-102029968"/>
+        <c:axId val="-120104528"/>
+        <c:axId val="-120100176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-102028880"/>
+        <c:axId val="-120104528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9601,7 +9680,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102029968"/>
+        <c:crossAx val="-120100176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9609,7 +9688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-102029968"/>
+        <c:axId val="-120100176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9660,7 +9739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-102028880"/>
+        <c:crossAx val="-120104528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9674,7 +9753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9786,7 +9864,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9864,54 +9941,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -10018,54 +10095,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -10172,54 +10249,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -10326,54 +10403,54 @@
             <c:numRef>
               <c:f>DATA2!$P$3:$P$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>1E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0%">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0%">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0%">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0%">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0%">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0%">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0%">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" formatCode="0%">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="0%">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="0%">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="0%">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -10448,17 +10525,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-100662080"/>
-        <c:axId val="-100652832"/>
+        <c:axId val="-120101808"/>
+        <c:axId val="-120105072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-100662080"/>
+        <c:axId val="-120101808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10495,7 +10572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-100652832"/>
+        <c:crossAx val="-120105072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10503,7 +10580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-100652832"/>
+        <c:axId val="-120105072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10554,7 +10631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-100662080"/>
+        <c:crossAx val="-120101808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10568,7 +10645,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17698,16 +17774,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127261</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>84841</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>122548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476053</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>103695</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278090</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>141402</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18386,271 +18462,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>7.7233807669258097</v>
+        <v>7.70423839196713</v>
       </c>
       <c r="C2">
-        <v>10.6785881059515</v>
+        <v>10.4893943448177</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8.5809637536955599E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.31122176902652299</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.60296859343651998</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.17253953034429501</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.52687242220854502</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.300588047447159</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>7.6590351293971297</v>
+        <v>7.6172755358064004</v>
       </c>
       <c r="C3">
-        <v>10.613189108804301</v>
+        <v>10.368891031648801</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8.4232226021961107E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.30550067736047398</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.59188441187174901</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.8382684745815E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.16933071659718399</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.51707388231462703</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.29499784410685198</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.8597556981335899E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>7.6302390439660304</v>
+        <v>7.5764630705979803</v>
       </c>
       <c r="C4">
-        <v>10.5966463930092</v>
+        <v>10.3259428379427</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8.2654814506966601E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.29977958569442398</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.58080023030697803</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3.676536949163E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.166121902850073</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.50727534242070904</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.28940764076654502</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3.7195113962671902E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>7.6106622101929604</v>
+        <v>7.5478088953805598</v>
       </c>
       <c r="C5">
-        <v>10.5888122496265</v>
+        <v>10.2968558025369</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8.1077402991972095E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.29405849402837497</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.56971604874220705</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.5148054237445003E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.16291308910296201</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.497476802526791</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.283817437426238</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5.5792670944007798E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>7.5962258457366003</v>
+        <v>7.5261344108133601</v>
       </c>
       <c r="C6">
-        <v>10.5855552693825</v>
+        <v>10.2752969298023</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7.9499991476977602E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.28833740236232502</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.55863186717743596</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7.3530738983259999E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.15970427535585099</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.48767826263287301</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.27822723408593097</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7.4390227925343805E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>7.5852535993573298</v>
+        <v>7.5092765081907604</v>
       </c>
       <c r="C7">
-        <v>10.5852875271689</v>
+        <v>10.258789680917801</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.7922579961983096E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.28261631069627602</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.54754768561266498</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9.1913423729075003E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.15649546160874001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.47787972273895502</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.27263703074562401</v>
+      </c>
+      <c r="K7" s="7">
+        <v>9.2987784906679694E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>7.5768559013969297</v>
+        <v>7.4960692293307201</v>
       </c>
       <c r="C8">
-        <v>10.587200113006601</v>
+        <v>10.246051011232501</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.6345168446988507E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.27689521903022601</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.536463504047894</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.11029610847489001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.15328664786162899</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.46808118284503702</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.26704682740531599</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.111585341888015</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>7.5704922035896303</v>
+        <v>7.4857951776826201</v>
       </c>
       <c r="C9">
-        <v>10.590816471240901</v>
+        <v>10.2363124559133</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7.4767756931994001E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.27117412736417701</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.52537932248312302</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.128678793220705</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.150077834114518</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.45828264295111898</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.26145662406500902</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.130182898869351</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>7.5658048378530598</v>
+        <v>7.4779756022148298</v>
       </c>
       <c r="C10">
-        <v>10.595829449054801</v>
+        <v>10.2290708944494</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7.3190345416999494E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.265453035698128</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.51429514091835205</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.14706147796652</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.14686902036740701</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.44848410305720099</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.255866420724702</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.148780455850687</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>7.5625428896348401</v>
+        <v>7.4722732378684498</v>
       </c>
       <c r="C11">
-        <v>10.6020286729456</v>
+        <v>10.2239767869332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.1612933902005002E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.259731944032078</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.50321095935358096</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.165444162712335</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.14366020662029599</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.438685563163284</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.25027621738439498</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.167378012832023</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B12">
-        <v>7.5605227194371096</v>
+        <v>7.4684413900978601</v>
       </c>
       <c r="C12">
-        <v>10.6092636867103</v>
+        <v>10.220777082829599</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.0035522387010496E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.25401085236602899</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.49212677778880998</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.18382684745815001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.140451392873185</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.42888702326936601</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.24468601404408799</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.185975569813359</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>7.5713134615818198</v>
+        <v>7.4700729233487202</v>
       </c>
       <c r="C13">
-        <v>10.6785352280349</v>
+        <v>10.2251922554969</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6.3031970148309496E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.22860976712942599</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.44291410000992898</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.26544416271233501</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.12640625358586699</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.38599832094242897</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.22021741263967901</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.267378012832023</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>7.6140221852611703</v>
+        <v>7.49700028020019</v>
       </c>
       <c r="C14">
-        <v>10.776561222524499</v>
+        <v>10.254605947006301</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.60284179096084E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.20320868189282301</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.39370142223104798</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.34706147796651998</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.112361114298548</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.343109618615492</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.19574881123526999</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.34878045585068701</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>7.6836647000386096</v>
+        <v>7.5467995501862202</v>
       </c>
       <c r="C15">
-        <v>10.9012391275703</v>
+        <v>10.306676631292101</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.9024865670907303E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.17780759665622001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.34448874445216698</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.42867879322070501</v>
+      </c>
+      <c r="H15" s="7">
+        <v>9.8315975011229906E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.30022091628855602</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.17128020983086201</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.43018289886935102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>7.7810576308521799</v>
+        <v>7.6205248900924696</v>
       </c>
       <c r="C16">
-        <v>11.055663341959001</v>
+        <v>10.3824355136815</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4.2021313432206303E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.152406511419617</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.29527606667328599</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.51029610847489004</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8.4270835723911294E-2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.25733221396161898</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.14681160842645299</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.51158534188801497</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>7.9112346943282397</v>
+        <v>7.7223811915218503</v>
       </c>
       <c r="C17">
-        <v>11.2473489270191</v>
+        <v>10.4859702717108</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.5017761193505199E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.127005426183014</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.24606338889440499</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.59191342372907496</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7.0225696436592794E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.214443511634683</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.122343007022044</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.59298778490667903</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B18">
-        <v>8.0848850623047408</v>
+        <v>7.8610934881573797</v>
       </c>
       <c r="C18">
-        <v>11.490450346381801</v>
+        <v>10.625740601718601</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.80142089548042E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.10160434094641101</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.19685071111552399</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.67353073898325999</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5.6180557149274203E-2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.171554809307746</v>
+      </c>
+      <c r="J18" s="7">
+        <v>9.7874405617635496E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.67439022792534298</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>8.3236718663165892</v>
+        <v>8.0542166253071699</v>
       </c>
       <c r="C19">
-        <v>11.8125944646491</v>
+        <v>10.8187042742214</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.10106567161031E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7.6203255709808695E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.14763803333664299</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.75514805423744502</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.2135417861955703E-2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.12866610698080899</v>
+      </c>
+      <c r="J19" s="7">
+        <v>7.3405804213226594E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.75579267094400704</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>8.6776304424500399</v>
+        <v>8.3419035491913398</v>
       </c>
       <c r="C20">
-        <v>12.2767218338939</v>
+        <v>11.1034379112764</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.40071044774021E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5.0802170473205698E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>9.8425355557761995E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.83676536949163005</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2.8090278574637102E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8.5777404653873096E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4.8937202808817699E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.83719511396267199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>9.3079996325220904</v>
+        <v>8.8511272220474595</v>
       </c>
       <c r="C21">
-        <v>13.0846760660729</v>
+        <v>11.6009145786732</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.0035522387010404E-3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.54010852366028E-2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.9212677778880901E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.91838268474581497</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.40451392873185E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4.2888702326936597E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2.4468601404408801E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.91859755698133505</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B22">
-        <v>9.9539052739607801</v>
+        <v>9.3624476694496899</v>
       </c>
       <c r="C22">
-        <v>13.901485623565399</v>
+        <v>12.0931608191558</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.5017761193505098E-3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.27005426183014E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2.4606338889440402E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.95919134237290704</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7.0225696436592901E-3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2.1444351163468298E-2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1.2234300702204401E-2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.95929877849066703</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B23">
-        <v>11.475034177890199</v>
+        <v>10.501396766416701</v>
       </c>
       <c r="C23">
-        <v>15.810111076078099</v>
+        <v>13.1653162364503</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7.0035522387010198E-4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.5401085236602598E-3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.92126777788803E-3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.99183826847458101</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.4045139287318599E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4.28887023269369E-3</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.4468601404409001E-3</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.99185975569813301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="188.55" x14ac:dyDescent="0.25">
+      <c r="N27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>162412</v>
+      </c>
+      <c r="O28">
+        <v>35303</v>
+      </c>
+      <c r="P28">
+        <v>9974</v>
+      </c>
+      <c r="Q28">
+        <v>22374</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L29" s="12"/>
+      <c r="M29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29">
+        <v>40000</v>
+      </c>
+      <c r="O29">
+        <v>12862</v>
+      </c>
+      <c r="P29">
+        <v>2441</v>
+      </c>
+      <c r="Q29">
+        <v>8914</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.85335000000000005</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0.58917742186285105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L30" s="12"/>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30">
+        <v>20000</v>
+      </c>
+      <c r="O30">
+        <v>7135</v>
+      </c>
+      <c r="P30">
+        <v>1373</v>
+      </c>
+      <c r="Q30">
+        <v>5153</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.86455000000000004</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0.65171688857743504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31">
+        <v>161098</v>
+      </c>
+      <c r="O31">
+        <v>8076</v>
+      </c>
+      <c r="P31">
+        <v>10600</v>
+      </c>
+      <c r="Q31">
+        <v>3202</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L32" s="12"/>
+      <c r="M32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32">
+        <v>40000</v>
+      </c>
+      <c r="O32">
+        <v>3858</v>
+      </c>
+      <c r="P32">
+        <v>2748</v>
+      </c>
+      <c r="Q32">
+        <v>1665</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0.78123379989631903</v>
+      </c>
+    </row>
+    <row r="33" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L33" s="12"/>
+      <c r="M33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33">
+        <v>20000</v>
+      </c>
+      <c r="O33">
+        <v>3159</v>
+      </c>
+      <c r="P33">
+        <v>1373</v>
+      </c>
+      <c r="Q33">
+        <v>1750</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.9556</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0.75815131370686895</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L28:L30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18666,78 +19464,78 @@
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
       <c r="R1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="W1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AB1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AG1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AI2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
@@ -19671,7 +20469,7 @@
         <v>4.7478202097042672</v>
       </c>
       <c r="W13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
@@ -19721,16 +20519,16 @@
         <v>4.7477136705401977</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="X14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
@@ -20939,83 +21737,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI66"/>
   <sheetViews>
-    <sheetView topLeftCell="M15" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:T37"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21:AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="AA1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AF1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="2:35" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="X2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
@@ -21037,7 +21835,7 @@
         <f>AVERAGEA(C3:L3)</f>
         <v>4.7478264493970803</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -21136,14 +21934,14 @@
         <v>4.7476633066541298</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O3:T66" si="2">AVERAGEA(C4:L4)</f>
+        <f t="shared" ref="O4:O66" si="2">AVERAGEA(C4:L4)</f>
         <v>4.7477415995367851</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:T18" si="3">$O4</f>
+        <f t="shared" ref="Q4:Q18" si="3">$O4</f>
         <v>4.7477415995367851</v>
       </c>
       <c r="R4">
@@ -21241,7 +22039,7 @@
         <f t="shared" si="2"/>
         <v>4.7468158660187383</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>1E-4</v>
       </c>
       <c r="Q5">
@@ -21343,7 +22141,7 @@
         <f t="shared" si="2"/>
         <v>4.7381848395671593</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>1E-3</v>
       </c>
       <c r="Q6">
@@ -21445,7 +22243,7 @@
         <f t="shared" si="2"/>
         <v>4.6584031389398799</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>0.01</v>
       </c>
       <c r="Q7">
@@ -21547,7 +22345,7 @@
         <f t="shared" si="2"/>
         <v>4.3370489561075143</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>0.05</v>
       </c>
       <c r="Q8">
@@ -21649,7 +22447,7 @@
         <f t="shared" si="2"/>
         <v>4.0059293971564554</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>0.1</v>
       </c>
       <c r="Q9">
@@ -21751,7 +22549,7 @@
         <f t="shared" si="2"/>
         <v>3.5392785353102694</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>0.2</v>
       </c>
       <c r="Q10">
@@ -21853,7 +22651,7 @@
         <f t="shared" si="2"/>
         <v>3.235526346337803</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0.3</v>
       </c>
       <c r="Q11">
@@ -21955,7 +22753,7 @@
         <f t="shared" si="2"/>
         <v>3.0279262279316042</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>0.4</v>
       </c>
       <c r="Q12">
@@ -22057,7 +22855,7 @@
         <f t="shared" si="2"/>
         <v>2.8738816501872058</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>0.5</v>
       </c>
       <c r="Q13">
@@ -22159,7 +22957,7 @@
         <f t="shared" si="2"/>
         <v>2.7543295680428259</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>0.6</v>
       </c>
       <c r="Q14">
@@ -22261,7 +23059,7 @@
         <f t="shared" si="2"/>
         <v>2.6595322639064181</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>0.7</v>
       </c>
       <c r="Q15">
@@ -22363,7 +23161,7 @@
         <f t="shared" si="2"/>
         <v>2.5861997434309787</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>0.8</v>
       </c>
       <c r="Q16">
@@ -22465,7 +23263,7 @@
         <f t="shared" si="2"/>
         <v>2.5333578026482599</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>0.9</v>
       </c>
       <c r="Q17">
@@ -22567,7 +23365,7 @@
         <f t="shared" si="2"/>
         <v>2.5099005373793508</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>1</v>
       </c>
       <c r="Q18">
@@ -22690,13 +23488,13 @@
         <v>4.7478252544238391</v>
       </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="V20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
@@ -22746,40 +23544,40 @@
         <v>4.747740960494629</v>
       </c>
       <c r="Q21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="S21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="V21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="X21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AA21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AB21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AC21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
@@ -22828,7 +23626,7 @@
         <f t="shared" si="2"/>
         <v>4.7470901812611279</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22">
@@ -22847,7 +23645,7 @@
         <f>2^$O51</f>
         <v>39.054808269648255</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22">
@@ -22921,7 +23719,7 @@
         <f t="shared" si="2"/>
         <v>4.7386647837946265</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="Q23">
@@ -22940,7 +23738,7 @@
         <f t="shared" ref="T23:T37" si="10">2^$O52</f>
         <v>39.055449214953974</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V23">
@@ -23014,7 +23812,7 @@
         <f t="shared" si="2"/>
         <v>4.6993510936556238</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <v>1E-4</v>
       </c>
       <c r="Q24">
@@ -23033,7 +23831,7 @@
         <f t="shared" si="10"/>
         <v>39.059838543133502</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>1E-4</v>
       </c>
       <c r="V24">
@@ -23107,7 +23905,7 @@
         <f t="shared" si="2"/>
         <v>4.6377471521811753</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <v>1E-3</v>
       </c>
       <c r="Q25">
@@ -23126,7 +23924,7 @@
         <f t="shared" si="10"/>
         <v>39.109728286858491</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <v>1E-3</v>
       </c>
       <c r="V25">
@@ -23200,7 +23998,7 @@
         <f t="shared" si="2"/>
         <v>4.4775075742472596</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>0.01</v>
       </c>
       <c r="Q26">
@@ -23219,7 +24017,7 @@
         <f t="shared" si="10"/>
         <v>39.592176730712161</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="3">
         <v>0.01</v>
       </c>
       <c r="V26">
@@ -23293,7 +24091,7 @@
         <f t="shared" si="2"/>
         <v>4.2804023449595672</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>0.05</v>
       </c>
       <c r="Q27">
@@ -23312,7 +24110,7 @@
         <f t="shared" si="10"/>
         <v>41.655829967494945</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="3">
         <v>0.05</v>
       </c>
       <c r="V27">
@@ -23386,7 +24184,7 @@
         <f t="shared" si="2"/>
         <v>4.0532614295108411</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>0.1</v>
       </c>
       <c r="Q28">
@@ -23405,7 +24203,7 @@
         <f t="shared" si="10"/>
         <v>43.948648178060765</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="3">
         <v>0.1</v>
       </c>
       <c r="V28">
@@ -23479,7 +24277,7 @@
         <f t="shared" si="2"/>
         <v>3.796197097170328</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>0.2</v>
       </c>
       <c r="Q29">
@@ -23498,7 +24296,7 @@
         <f t="shared" si="10"/>
         <v>47.284120825929499</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="3">
         <v>0.2</v>
       </c>
       <c r="V29">
@@ -23572,7 +24370,7 @@
         <f t="shared" si="2"/>
         <v>3.5245164424043596</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>0.3</v>
       </c>
       <c r="Q30">
@@ -23591,7 +24389,7 @@
         <f t="shared" si="10"/>
         <v>48.574235227450664</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="3">
         <v>0.3</v>
       </c>
       <c r="V30">
@@ -23665,7 +24463,7 @@
         <f t="shared" si="2"/>
         <v>3.2378298389368241</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>0.4</v>
       </c>
       <c r="Q31">
@@ -23684,7 +24482,7 @@
         <f t="shared" si="10"/>
         <v>47.691423496618796</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="3">
         <v>0.4</v>
       </c>
       <c r="V31">
@@ -23758,7 +24556,7 @@
         <f t="shared" si="2"/>
         <v>2.9625135965533218</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>0.5</v>
       </c>
       <c r="Q32">
@@ -23777,7 +24575,7 @@
         <f t="shared" si="10"/>
         <v>44.69774808364356</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="3">
         <v>0.5</v>
       </c>
       <c r="V32">
@@ -23805,7 +24603,7 @@
         <v>7401</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.9</v>
       </c>
@@ -23851,7 +24649,7 @@
         <f t="shared" si="2"/>
         <v>2.7026714114102339</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>0.6</v>
       </c>
       <c r="Q33">
@@ -23870,7 +24668,7 @@
         <f t="shared" si="10"/>
         <v>40.387166547325215</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="3">
         <v>0.6</v>
       </c>
       <c r="V33">
@@ -23898,7 +24696,7 @@
         <v>5863</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1</v>
       </c>
@@ -23944,7 +24742,7 @@
         <f t="shared" si="2"/>
         <v>2.5214582569249337</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>0.7</v>
       </c>
       <c r="Q34">
@@ -23963,7 +24761,7 @@
         <f t="shared" si="10"/>
         <v>35.379124731151784</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="3">
         <v>0.7</v>
       </c>
       <c r="V34">
@@ -23991,7 +24789,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0</v>
       </c>
@@ -24010,7 +24808,7 @@
         <f t="shared" si="2"/>
         <v>5.2874282729534601</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>0.8</v>
       </c>
       <c r="Q35">
@@ -24029,7 +24827,7 @@
         <f t="shared" si="10"/>
         <v>30.427683243148351</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="3">
         <v>0.8</v>
       </c>
       <c r="V35">
@@ -24057,7 +24855,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -24103,7 +24901,7 @@
         <f t="shared" si="2"/>
         <v>5.2873897193714985</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>0.9</v>
       </c>
       <c r="Q36">
@@ -24122,7 +24920,7 @@
         <f t="shared" si="10"/>
         <v>26.107644859141384</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="3">
         <v>0.9</v>
       </c>
       <c r="V36">
@@ -24150,7 +24948,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1E-4</v>
       </c>
@@ -24196,7 +24994,7 @@
         <f t="shared" si="2"/>
         <v>5.2870963789223646</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>1</v>
       </c>
       <c r="Q37">
@@ -24215,7 +25013,7 @@
         <f t="shared" si="10"/>
         <v>23.48701456856325</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="3">
         <v>1</v>
       </c>
       <c r="V37">
@@ -24243,7 +25041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1E-3</v>
       </c>
@@ -24290,7 +25088,7 @@
         <v>5.2838106684893082</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.01</v>
       </c>
@@ -24337,7 +25135,7 @@
         <v>5.2501919411922167</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.05</v>
       </c>
@@ -24384,7 +25182,7 @@
         <v>5.0570003221871556</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.1</v>
       </c>
@@ -24430,8 +25228,56 @@
         <f t="shared" si="2"/>
         <v>4.7318424121669347</v>
       </c>
+      <c r="Q41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.2</v>
       </c>
@@ -24477,8 +25323,56 @@
         <f t="shared" si="2"/>
         <v>4.0309171839685449</v>
       </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="S42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="T42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="W42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="X42">
+        <v>4.7478264493970803</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>5.2874282729534601</v>
+      </c>
+      <c r="AA42">
+        <v>5.2874282729534601</v>
+      </c>
+      <c r="AB42">
+        <v>5.2874282729534601</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>5.2874282729534601</v>
+      </c>
+      <c r="AE42">
+        <v>5.2874282729534601</v>
+      </c>
+      <c r="AF42">
+        <v>5.2874282729534601</v>
+      </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.3</v>
       </c>
@@ -24524,8 +25418,56 @@
         <f t="shared" si="2"/>
         <v>3.415596545322674</v>
       </c>
+      <c r="Q43" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R43">
+        <v>4.7478190946469896</v>
+      </c>
+      <c r="S43">
+        <v>4.7476633066541298</v>
+      </c>
+      <c r="T43">
+        <v>4.7477415995367851</v>
+      </c>
+      <c r="U43" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V43">
+        <v>4.7478565651701397</v>
+      </c>
+      <c r="W43">
+        <v>4.7477638447077704</v>
+      </c>
+      <c r="X43">
+        <v>4.7478252544238391</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z43">
+        <v>5.2874541512013504</v>
+      </c>
+      <c r="AA43">
+        <v>5.2873046498127598</v>
+      </c>
+      <c r="AB43">
+        <v>5.2873897193714985</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AD43">
+        <v>5.2874853489544602</v>
+      </c>
+      <c r="AE43">
+        <v>5.2873954754141996</v>
+      </c>
+      <c r="AF43">
+        <v>5.2874519494498342</v>
+      </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.4</v>
       </c>
@@ -24571,8 +25513,56 @@
         <f t="shared" si="2"/>
         <v>2.904883091206345</v>
       </c>
+      <c r="Q44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="R44">
+        <v>4.7471145724019301</v>
+      </c>
+      <c r="S44">
+        <v>4.74657659994892</v>
+      </c>
+      <c r="T44">
+        <v>4.7468158660187383</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="V44">
+        <v>4.7479542215516002</v>
+      </c>
+      <c r="W44">
+        <v>4.7475665167730297</v>
+      </c>
+      <c r="X44">
+        <v>4.747740960494629</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="Z44">
+        <v>5.2874478591122998</v>
+      </c>
+      <c r="AA44">
+        <v>5.2868776073430697</v>
+      </c>
+      <c r="AB44">
+        <v>5.2870963789223646</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AD44">
+        <v>5.28774724832983</v>
+      </c>
+      <c r="AE44">
+        <v>5.2874515351016296</v>
+      </c>
+      <c r="AF44">
+        <v>5.2876140806327525</v>
+      </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.5</v>
       </c>
@@ -24618,8 +25608,56 @@
         <f t="shared" si="2"/>
         <v>2.5021950594330784</v>
       </c>
+      <c r="Q45" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R45">
+        <v>4.7389334359733404</v>
+      </c>
+      <c r="S45">
+        <v>4.7370535651762804</v>
+      </c>
+      <c r="T45">
+        <v>4.7381848395671593</v>
+      </c>
+      <c r="U45" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="V45">
+        <v>4.7475049827080698</v>
+      </c>
+      <c r="W45">
+        <v>4.7464881073821203</v>
+      </c>
+      <c r="X45">
+        <v>4.7470901812611279</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="Z45">
+        <v>5.2848095199022698</v>
+      </c>
+      <c r="AA45">
+        <v>5.2829110721785799</v>
+      </c>
+      <c r="AB45">
+        <v>5.2838106684893082</v>
+      </c>
+      <c r="AC45" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="AD45">
+        <v>5.2902817257292503</v>
+      </c>
+      <c r="AE45">
+        <v>5.2887850093967099</v>
+      </c>
+      <c r="AF45">
+        <v>5.2894556079317958</v>
+      </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.6</v>
       </c>
@@ -24665,8 +25703,56 @@
         <f t="shared" si="2"/>
         <v>2.180115472003533</v>
       </c>
+      <c r="Q46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="R46">
+        <v>4.6619805871339901</v>
+      </c>
+      <c r="S46">
+        <v>4.6539283841074299</v>
+      </c>
+      <c r="T46">
+        <v>4.6584031389398799</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="V46">
+        <v>4.7401728194552604</v>
+      </c>
+      <c r="W46">
+        <v>4.7374124193850102</v>
+      </c>
+      <c r="X46">
+        <v>4.7386647837946265</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Z46">
+        <v>5.2518145256905502</v>
+      </c>
+      <c r="AA46">
+        <v>5.2461090559605799</v>
+      </c>
+      <c r="AB46">
+        <v>5.2501919411922167</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="AD46">
+        <v>5.3085854319426797</v>
+      </c>
+      <c r="AE46">
+        <v>5.3059251104591203</v>
+      </c>
+      <c r="AF46">
+        <v>5.3071434820905736</v>
+      </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.7</v>
       </c>
@@ -24712,8 +25798,56 @@
         <f t="shared" si="2"/>
         <v>1.9350208169896501</v>
       </c>
+      <c r="Q47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="R47">
+        <v>4.3408157372883398</v>
+      </c>
+      <c r="S47">
+        <v>4.3335138253399004</v>
+      </c>
+      <c r="T47">
+        <v>4.3370489561075143</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="V47">
+        <v>4.7022800995414604</v>
+      </c>
+      <c r="W47">
+        <v>4.6958100372274396</v>
+      </c>
+      <c r="X47">
+        <v>4.6993510936556238</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Z47">
+        <v>5.0609150356290504</v>
+      </c>
+      <c r="AA47">
+        <v>5.0536485678900096</v>
+      </c>
+      <c r="AB47">
+        <v>5.0570003221871556</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="AD47">
+        <v>5.3835051431481196</v>
+      </c>
+      <c r="AE47">
+        <v>5.3778152488308999</v>
+      </c>
+      <c r="AF47">
+        <v>5.3804465178873597</v>
+      </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.8</v>
       </c>
@@ -24759,8 +25893,56 @@
         <f t="shared" si="2"/>
         <v>1.7565577140458211</v>
       </c>
+      <c r="Q48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R48">
+        <v>4.0121998227600102</v>
+      </c>
+      <c r="S48">
+        <v>3.9981285513027398</v>
+      </c>
+      <c r="T48">
+        <v>4.0059293971564554</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V48">
+        <v>4.6413886546974599</v>
+      </c>
+      <c r="W48">
+        <v>4.6323938965976401</v>
+      </c>
+      <c r="X48">
+        <v>4.6377471521811753</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Z48">
+        <v>4.7390601991672803</v>
+      </c>
+      <c r="AA48">
+        <v>4.7240702158889798</v>
+      </c>
+      <c r="AB48">
+        <v>4.7318424121669347</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AD48">
+        <v>5.4622571765837797</v>
+      </c>
+      <c r="AE48">
+        <v>5.4528892321220699</v>
+      </c>
+      <c r="AF48">
+        <v>5.4577468849021891</v>
+      </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.9</v>
       </c>
@@ -24806,8 +25988,56 @@
         <f t="shared" si="2"/>
         <v>1.6440144693831278</v>
       </c>
+      <c r="Q49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R49">
+        <v>3.5468646065501699</v>
+      </c>
+      <c r="S49">
+        <v>3.5325620628336898</v>
+      </c>
+      <c r="T49">
+        <v>3.5392785353102694</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="V49">
+        <v>4.4847864045705901</v>
+      </c>
+      <c r="W49">
+        <v>4.4691076798603797</v>
+      </c>
+      <c r="X49">
+        <v>4.4775075742472596</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="Z49">
+        <v>4.0358453758205304</v>
+      </c>
+      <c r="AA49">
+        <v>4.0277333262985104</v>
+      </c>
+      <c r="AB49">
+        <v>4.0309171839685449</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AD49">
+        <v>5.5679652878835597</v>
+      </c>
+      <c r="AE49">
+        <v>5.5575222824417496</v>
+      </c>
+      <c r="AF49">
+        <v>5.5632838672062528</v>
+      </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1</v>
       </c>
@@ -24853,8 +26083,56 @@
         <f t="shared" si="2"/>
         <v>1.6012751450467611</v>
       </c>
+      <c r="Q50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R50">
+        <v>3.2433016029314099</v>
+      </c>
+      <c r="S50">
+        <v>3.2314108764796701</v>
+      </c>
+      <c r="T50">
+        <v>3.235526346337803</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="V50">
+        <v>4.2873149392533199</v>
+      </c>
+      <c r="W50">
+        <v>4.2750286279237901</v>
+      </c>
+      <c r="X50">
+        <v>4.2804023449595672</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Z50">
+        <v>3.4215482840829599</v>
+      </c>
+      <c r="AA50">
+        <v>3.4086812323471198</v>
+      </c>
+      <c r="AB50">
+        <v>3.415596545322674</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AD50">
+        <v>5.6063994072362302</v>
+      </c>
+      <c r="AE50">
+        <v>5.5976245200141497</v>
+      </c>
+      <c r="AF50">
+        <v>5.6021193764982922</v>
+      </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
@@ -24873,8 +26151,56 @@
         <f t="shared" si="2"/>
         <v>5.2874282729534601</v>
       </c>
+      <c r="Q51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R51">
+        <v>3.0316494839123602</v>
+      </c>
+      <c r="S51">
+        <v>3.02239273214686</v>
+      </c>
+      <c r="T51">
+        <v>3.0279262279316042</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V51">
+        <v>4.0595884340630004</v>
+      </c>
+      <c r="W51">
+        <v>4.0436695953177599</v>
+      </c>
+      <c r="X51">
+        <v>4.0532614295108411</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Z51">
+        <v>2.9131419567139698</v>
+      </c>
+      <c r="AA51">
+        <v>2.899660595751</v>
+      </c>
+      <c r="AB51">
+        <v>2.904883091206345</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AD51">
+        <v>5.5817911910730302</v>
+      </c>
+      <c r="AE51">
+        <v>5.5684166107068904</v>
+      </c>
+      <c r="AF51">
+        <v>5.575657939914942</v>
+      </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -24920,8 +26246,56 @@
         <f t="shared" si="2"/>
         <v>5.2874519494498342</v>
       </c>
+      <c r="Q52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>2.8815378307714501</v>
+      </c>
+      <c r="S52">
+        <v>2.8687811837198298</v>
+      </c>
+      <c r="T52">
+        <v>2.8738816501872058</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="V52">
+        <v>3.8083935446134398</v>
+      </c>
+      <c r="W52">
+        <v>3.78500706291792</v>
+      </c>
+      <c r="X52">
+        <v>3.796197097170328</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Z52">
+        <v>2.50447570050116</v>
+      </c>
+      <c r="AA52">
+        <v>2.4996208767763899</v>
+      </c>
+      <c r="AB52">
+        <v>2.5021950594330784</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AD52">
+        <v>5.4846260010336998</v>
+      </c>
+      <c r="AE52">
+        <v>5.4798568471451699</v>
+      </c>
+      <c r="AF52">
+        <v>5.4821302437367132</v>
+      </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1E-4</v>
       </c>
@@ -24967,8 +26341,56 @@
         <f t="shared" si="2"/>
         <v>5.2876140806327525</v>
       </c>
+      <c r="Q53" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R53">
+        <v>2.7564298591377798</v>
+      </c>
+      <c r="S53">
+        <v>2.7515244581103002</v>
+      </c>
+      <c r="T53">
+        <v>2.7543295680428259</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V53">
+        <v>3.53084119320269</v>
+      </c>
+      <c r="W53">
+        <v>3.5170416240482498</v>
+      </c>
+      <c r="X53">
+        <v>3.5245164424043596</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Z53">
+        <v>2.1844504985267199</v>
+      </c>
+      <c r="AA53">
+        <v>2.1765564270379998</v>
+      </c>
+      <c r="AB53">
+        <v>2.180115472003533</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AD53">
+        <v>5.3407027719513804</v>
+      </c>
+      <c r="AE53">
+        <v>5.3330112984214804</v>
+      </c>
+      <c r="AF53">
+        <v>5.3358250289572347</v>
+      </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1E-3</v>
       </c>
@@ -25014,8 +26436,56 @@
         <f t="shared" si="2"/>
         <v>5.2894556079317958</v>
       </c>
+      <c r="Q54" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="R54">
+        <v>2.66279605847406</v>
+      </c>
+      <c r="S54">
+        <v>2.6538738703960201</v>
+      </c>
+      <c r="T54">
+        <v>2.6595322639064181</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="V54">
+        <v>3.2444297630243799</v>
+      </c>
+      <c r="W54">
+        <v>3.2303012600432601</v>
+      </c>
+      <c r="X54">
+        <v>3.2378298389368241</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="Z54">
+        <v>1.9376680407329601</v>
+      </c>
+      <c r="AA54">
+        <v>1.9308973691440401</v>
+      </c>
+      <c r="AB54">
+        <v>1.9350208169896501</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AD54">
+        <v>5.1503048006829903</v>
+      </c>
+      <c r="AE54">
+        <v>5.1404906960562098</v>
+      </c>
+      <c r="AF54">
+        <v>5.1448264515181474</v>
+      </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>0.01</v>
       </c>
@@ -25061,8 +26531,56 @@
         <f t="shared" si="2"/>
         <v>5.3071434820905736</v>
       </c>
+      <c r="Q55" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R55">
+        <v>2.5880051829911599</v>
+      </c>
+      <c r="S55">
+        <v>2.5847011352181699</v>
+      </c>
+      <c r="T55">
+        <v>2.5861997434309787</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V55">
+        <v>2.9696786444849801</v>
+      </c>
+      <c r="W55">
+        <v>2.9550073505888399</v>
+      </c>
+      <c r="X55">
+        <v>2.9625135965533218</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Z55">
+        <v>1.7588738855338799</v>
+      </c>
+      <c r="AA55">
+        <v>1.75536977429207</v>
+      </c>
+      <c r="AB55">
+        <v>1.7565577140458211</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AD55">
+        <v>4.9301399265644399</v>
+      </c>
+      <c r="AE55">
+        <v>4.9251448072382598</v>
+      </c>
+      <c r="AF55">
+        <v>4.927312586450638</v>
+      </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>0.05</v>
       </c>
@@ -25108,8 +26626,56 @@
         <f t="shared" si="2"/>
         <v>5.3804465178873597</v>
       </c>
+      <c r="Q56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R56">
+        <v>2.5343297903420701</v>
+      </c>
+      <c r="S56">
+        <v>2.5312556554115999</v>
+      </c>
+      <c r="T56">
+        <v>2.5333578026482599</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V56">
+        <v>2.7069642948402302</v>
+      </c>
+      <c r="W56">
+        <v>2.69949386787858</v>
+      </c>
+      <c r="X56">
+        <v>2.7026714114102339</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="Z56">
+        <v>1.64572475625689</v>
+      </c>
+      <c r="AA56">
+        <v>1.6421756638745499</v>
+      </c>
+      <c r="AB56">
+        <v>1.6440144693831278</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AD56">
+        <v>4.7084922740310304</v>
+      </c>
+      <c r="AE56">
+        <v>4.70470605502409</v>
+      </c>
+      <c r="AF56">
+        <v>4.7064004145340466</v>
+      </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.1</v>
       </c>
@@ -25155,8 +26721,56 @@
         <f t="shared" si="2"/>
         <v>5.4577468849021891</v>
       </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>2.5111291478768498</v>
+      </c>
+      <c r="S57">
+        <v>2.5088778976511601</v>
+      </c>
+      <c r="T57">
+        <v>2.5099005373793508</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>2.5235778289845099</v>
+      </c>
+      <c r="W57">
+        <v>2.5199500414056599</v>
+      </c>
+      <c r="X57">
+        <v>2.5214582569249337</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1.6021686144496801</v>
+      </c>
+      <c r="AA57">
+        <v>1.59994611426663</v>
+      </c>
+      <c r="AB57">
+        <v>1.6012751450467611</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>4.5544957550410601</v>
+      </c>
+      <c r="AE57">
+        <v>4.55312677370478</v>
+      </c>
+      <c r="AF57">
+        <v>4.5537914391079495</v>
+      </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.2</v>
       </c>
@@ -25203,7 +26817,7 @@
         <v>5.5632838672062528</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.3</v>
       </c>
@@ -25250,7 +26864,7 @@
         <v>5.6021193764982922</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.4</v>
       </c>
@@ -25296,8 +26910,26 @@
         <f t="shared" si="2"/>
         <v>5.575657939914942</v>
       </c>
+      <c r="Q60" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" t="s">
+        <v>27</v>
+      </c>
+      <c r="V60" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.5</v>
       </c>
@@ -25343,8 +26975,26 @@
         <f t="shared" si="2"/>
         <v>5.4821302437367132</v>
       </c>
+      <c r="Q61" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61">
+        <v>221098</v>
+      </c>
+      <c r="S61">
+        <v>9607</v>
+      </c>
+      <c r="T61">
+        <v>3811</v>
+      </c>
+      <c r="U61">
+        <v>1371</v>
+      </c>
+      <c r="V61">
+        <v>743</v>
+      </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.6</v>
       </c>
@@ -25390,8 +27040,26 @@
         <f t="shared" si="2"/>
         <v>5.3358250289572347</v>
       </c>
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62">
+        <v>222412</v>
+      </c>
+      <c r="S62">
+        <v>42826</v>
+      </c>
+      <c r="T62">
+        <v>26315</v>
+      </c>
+      <c r="U62">
+        <v>6592</v>
+      </c>
+      <c r="V62">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.7</v>
       </c>
@@ -25438,7 +27106,7 @@
         <v>5.1448264515181474</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.8</v>
       </c>
@@ -25581,6 +27249,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25588,8 +27257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
